--- a/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
+++ b/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
+++ b/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
+++ b/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,16 +63,16 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Copy of Codes from Foreldreansvar defined by Skatteetaten</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -281,10 +281,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -369,24 +369,22 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="12">

--- a/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
+++ b/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
+++ b/no-basis/CurrentBuild/CodeSystem-no-basis-parental-responsibility.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
